--- a/Code/Results/Cases/Case_5_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_110/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24047830529774</v>
+        <v>20.41270024389404</v>
       </c>
       <c r="C2">
-        <v>23.56506219115754</v>
+        <v>17.26868271090596</v>
       </c>
       <c r="D2">
-        <v>4.091888250280006</v>
+        <v>6.953944436805049</v>
       </c>
       <c r="E2">
-        <v>9.424644006935505</v>
+        <v>12.71111770342551</v>
       </c>
       <c r="F2">
-        <v>39.23215410921952</v>
+        <v>43.92638751237442</v>
       </c>
       <c r="I2">
-        <v>20.88031134552078</v>
+        <v>27.50587781547371</v>
       </c>
       <c r="J2">
-        <v>6.70521256075657</v>
+        <v>10.2843771402909</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.78923919808886</v>
+        <v>18.53984072357976</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.36364389131623</v>
+        <v>19.90059342218827</v>
       </c>
       <c r="C3">
-        <v>21.87344861916587</v>
+        <v>16.7600630216544</v>
       </c>
       <c r="D3">
-        <v>3.970634948408863</v>
+        <v>6.947847286123034</v>
       </c>
       <c r="E3">
-        <v>9.052797271983842</v>
+        <v>12.68434590529646</v>
       </c>
       <c r="F3">
-        <v>37.48142258864483</v>
+        <v>43.72777172053077</v>
       </c>
       <c r="I3">
-        <v>20.38490530517027</v>
+        <v>27.52309948137511</v>
       </c>
       <c r="J3">
-        <v>6.569250552134996</v>
+        <v>10.29380399114021</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.09543590979069</v>
+        <v>18.61783209767465</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.15512232099216</v>
+        <v>19.5854085791531</v>
       </c>
       <c r="C4">
-        <v>20.82474264519527</v>
+        <v>16.44545893365884</v>
       </c>
       <c r="D4">
-        <v>3.895613214631534</v>
+        <v>6.944803949421012</v>
       </c>
       <c r="E4">
-        <v>8.824810009234694</v>
+        <v>12.67057955769826</v>
       </c>
       <c r="F4">
-        <v>36.41899875152388</v>
+        <v>43.61938210404844</v>
       </c>
       <c r="I4">
-        <v>20.10422146113343</v>
+        <v>27.54139620639259</v>
       </c>
       <c r="J4">
-        <v>6.490170783194261</v>
+        <v>10.30152207838112</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.28550834600382</v>
+        <v>18.66772759342776</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.64832104585266</v>
+        <v>19.45698718252594</v>
       </c>
       <c r="C5">
-        <v>20.38962501065159</v>
+        <v>16.31689344150409</v>
       </c>
       <c r="D5">
-        <v>3.864930847273885</v>
+        <v>6.943741062016802</v>
       </c>
       <c r="E5">
-        <v>8.732068797145688</v>
+        <v>12.66564429437004</v>
       </c>
       <c r="F5">
-        <v>35.98948103316881</v>
+        <v>43.5786444692613</v>
       </c>
       <c r="I5">
-        <v>19.9955426989076</v>
+        <v>27.55078441393842</v>
       </c>
       <c r="J5">
-        <v>6.459029582813282</v>
+        <v>10.30515175345555</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.36355873452306</v>
+        <v>18.68856731357365</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.56329697108574</v>
+        <v>19.43567025350214</v>
       </c>
       <c r="C6">
-        <v>20.31675471574618</v>
+        <v>16.29553001385213</v>
       </c>
       <c r="D6">
-        <v>3.859830437295857</v>
+        <v>6.943575312388314</v>
       </c>
       <c r="E6">
-        <v>8.716681904226341</v>
+        <v>12.66486561524064</v>
       </c>
       <c r="F6">
-        <v>35.91837658405785</v>
+        <v>43.57208783411578</v>
       </c>
       <c r="I6">
-        <v>19.97783492086476</v>
+        <v>27.55245970965683</v>
       </c>
       <c r="J6">
-        <v>6.453923471646437</v>
+        <v>10.30578369402324</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.37655692265198</v>
+        <v>18.69205840309172</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.14834564261527</v>
+        <v>19.5836762872485</v>
       </c>
       <c r="C7">
-        <v>20.81891603087223</v>
+        <v>16.44372622136265</v>
       </c>
       <c r="D7">
-        <v>3.895199821888391</v>
+        <v>6.944788895539326</v>
       </c>
       <c r="E7">
-        <v>8.823558477937492</v>
+        <v>12.67051026412824</v>
       </c>
       <c r="F7">
-        <v>36.41319182054837</v>
+        <v>43.61881878140985</v>
       </c>
       <c r="I7">
-        <v>20.10273297014592</v>
+        <v>27.54151500977557</v>
       </c>
       <c r="J7">
-        <v>6.489746439986107</v>
+        <v>10.30156906894245</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.28655845946217</v>
+        <v>18.66800659039924</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.60486462808281</v>
+        <v>20.23640336403751</v>
       </c>
       <c r="C8">
-        <v>22.9913043996241</v>
+        <v>17.09391766427216</v>
       </c>
       <c r="D8">
-        <v>4.05021765743435</v>
+        <v>6.951697513356692</v>
       </c>
       <c r="E8">
-        <v>9.296407761285908</v>
+        <v>12.70133415287317</v>
       </c>
       <c r="F8">
-        <v>38.62604109824647</v>
+        <v>43.85510493491194</v>
       </c>
       <c r="I8">
-        <v>20.7044952145254</v>
+        <v>27.5102074714732</v>
       </c>
       <c r="J8">
-        <v>6.657405415553338</v>
+        <v>10.28722650177269</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.89443364213385</v>
+        <v>18.56631641237116</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.98763658582993</v>
+        <v>21.50176199423399</v>
       </c>
       <c r="C9">
-        <v>26.96493837078935</v>
+        <v>18.34163096372713</v>
       </c>
       <c r="D9">
-        <v>4.348409889061077</v>
+        <v>6.970748427323626</v>
       </c>
       <c r="E9">
-        <v>10.22358205110851</v>
+        <v>12.78282992754774</v>
       </c>
       <c r="F9">
-        <v>43.05773563295547</v>
+        <v>44.42484994014148</v>
       </c>
       <c r="I9">
-        <v>22.08031591370578</v>
+        <v>27.51047921114985</v>
       </c>
       <c r="J9">
-        <v>7.022251613110966</v>
+        <v>10.27444637018375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.13819421911047</v>
+        <v>18.38275217405645</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.96090559126585</v>
+        <v>22.41155779875957</v>
       </c>
       <c r="C10">
-        <v>29.68328448132138</v>
+        <v>19.23062506491067</v>
       </c>
       <c r="D10">
-        <v>4.562605363234732</v>
+        <v>6.988025867660996</v>
       </c>
       <c r="E10">
-        <v>10.90275343182769</v>
+        <v>12.85530515753786</v>
       </c>
       <c r="F10">
-        <v>46.36942853067188</v>
+        <v>44.90632413087247</v>
       </c>
       <c r="I10">
-        <v>23.2242841022486</v>
+        <v>27.54873848264532</v>
       </c>
       <c r="J10">
-        <v>7.314254494608662</v>
+        <v>10.27444983223716</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.58471095613856</v>
+        <v>18.25742626349269</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.26482880833943</v>
+        <v>22.81904576916436</v>
       </c>
       <c r="C11">
-        <v>30.88118400862319</v>
+        <v>19.62699384937143</v>
       </c>
       <c r="D11">
-        <v>4.658807408008721</v>
+        <v>6.996581307703768</v>
       </c>
       <c r="E11">
-        <v>11.21138672290831</v>
+        <v>12.8909508854902</v>
       </c>
       <c r="F11">
-        <v>47.89094689899679</v>
+        <v>45.13848956576585</v>
       </c>
       <c r="I11">
-        <v>23.77715266738028</v>
+        <v>27.5744833857989</v>
       </c>
       <c r="J11">
-        <v>7.452880754115427</v>
+        <v>10.27649630325423</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.3319834119125</v>
+        <v>18.20245691061833</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.75207971030799</v>
+        <v>22.97227563811027</v>
       </c>
       <c r="C12">
-        <v>31.32973301028136</v>
+        <v>19.77578244515111</v>
       </c>
       <c r="D12">
-        <v>4.695051525752003</v>
+        <v>6.999919545511657</v>
       </c>
       <c r="E12">
-        <v>11.32825769590988</v>
+        <v>12.90482775805113</v>
       </c>
       <c r="F12">
-        <v>48.46972450148967</v>
+        <v>45.22824295537355</v>
       </c>
       <c r="I12">
-        <v>23.99153394359669</v>
+        <v>27.58543571784471</v>
       </c>
       <c r="J12">
-        <v>7.506271897471989</v>
+        <v>10.27756543703257</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.23601762089034</v>
+        <v>18.18193310800984</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.6474229361952</v>
+        <v>22.93932514299504</v>
       </c>
       <c r="C13">
-        <v>31.23334663222168</v>
+        <v>19.74379857610452</v>
       </c>
       <c r="D13">
-        <v>4.687254009095231</v>
+        <v>6.999196242228936</v>
       </c>
       <c r="E13">
-        <v>11.30308644613177</v>
+        <v>12.90182239162294</v>
       </c>
       <c r="F13">
-        <v>48.34494888653821</v>
+        <v>45.2088321133887</v>
       </c>
       <c r="I13">
-        <v>23.94513338193366</v>
+        <v>27.58302337128492</v>
       </c>
       <c r="J13">
-        <v>7.494732108610057</v>
+        <v>10.27732209588487</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.25669944032846</v>
+        <v>18.18634032150371</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.30504283637562</v>
+        <v>22.83167453372331</v>
       </c>
       <c r="C14">
-        <v>30.91818486935727</v>
+        <v>19.63926180056928</v>
       </c>
       <c r="D14">
-        <v>4.661792971913016</v>
+        <v>6.996853982151582</v>
       </c>
       <c r="E14">
-        <v>11.22100142737878</v>
+        <v>12.89208499392509</v>
       </c>
       <c r="F14">
-        <v>47.9385076363822</v>
+        <v>45.14583712083395</v>
       </c>
       <c r="I14">
-        <v>23.79468702945204</v>
+        <v>27.57536030696749</v>
       </c>
       <c r="J14">
-        <v>7.457254889979785</v>
+        <v>10.27657836557023</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.32409429885347</v>
+        <v>18.20076256490916</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.09449191427924</v>
+        <v>22.76559066457061</v>
       </c>
       <c r="C15">
-        <v>30.72449510790542</v>
+        <v>19.57505546142167</v>
       </c>
       <c r="D15">
-        <v>4.646173076241626</v>
+        <v>6.995432057065281</v>
       </c>
       <c r="E15">
-        <v>11.17072365426143</v>
+        <v>12.88616966825974</v>
       </c>
       <c r="F15">
-        <v>47.68990756772523</v>
+        <v>45.10748853077099</v>
       </c>
       <c r="I15">
-        <v>23.70319993722516</v>
+        <v>27.57082325818254</v>
       </c>
       <c r="J15">
-        <v>7.434417902179774</v>
+        <v>10.27616112121844</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.36533731437975</v>
+        <v>18.2096345676011</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.87475164066193</v>
+        <v>22.38478517165765</v>
       </c>
       <c r="C16">
-        <v>29.60426071588302</v>
+        <v>19.20454636521849</v>
       </c>
       <c r="D16">
-        <v>4.556292645804605</v>
+        <v>6.987480617656646</v>
       </c>
       <c r="E16">
-        <v>10.88258008369847</v>
+        <v>12.85302895870346</v>
       </c>
       <c r="F16">
-        <v>46.27033009729297</v>
+        <v>44.89141162515136</v>
       </c>
       <c r="I16">
-        <v>23.18883488879807</v>
+        <v>27.54722419169415</v>
       </c>
       <c r="J16">
-        <v>7.305316574410956</v>
+        <v>10.27435725342387</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.60119764974845</v>
+        <v>18.2610595816477</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11434144514118</v>
+        <v>22.14942132504154</v>
       </c>
       <c r="C17">
-        <v>28.90744941140473</v>
+        <v>18.97507943351232</v>
       </c>
       <c r="D17">
-        <v>4.500829707511402</v>
+        <v>6.982779781204957</v>
       </c>
       <c r="E17">
-        <v>10.70575193952712</v>
+        <v>12.83337941316699</v>
       </c>
       <c r="F17">
-        <v>45.40357208671032</v>
+        <v>44.76218521014342</v>
       </c>
       <c r="I17">
-        <v>22.88183607050239</v>
+        <v>27.53488635312811</v>
       </c>
       <c r="J17">
-        <v>7.22764110856345</v>
+        <v>10.27377452511737</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.74556124564654</v>
+        <v>18.29312893217548</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67236362941174</v>
+        <v>22.01345421336604</v>
       </c>
       <c r="C18">
-        <v>28.50298609231649</v>
+        <v>18.84234756145434</v>
       </c>
       <c r="D18">
-        <v>4.468812580600185</v>
+        <v>6.980141579060841</v>
       </c>
       <c r="E18">
-        <v>10.6040098785659</v>
+        <v>12.82232983657549</v>
       </c>
       <c r="F18">
-        <v>44.90641061610268</v>
+        <v>44.6890978333286</v>
       </c>
       <c r="I18">
-        <v>22.70829039461092</v>
+        <v>27.52857485462465</v>
       </c>
       <c r="J18">
-        <v>7.18350485781646</v>
+        <v>10.27363183290492</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.82851471888277</v>
+        <v>18.31176668390255</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.52191240848459</v>
+        <v>21.96732145644065</v>
       </c>
       <c r="C19">
-        <v>28.36539671806183</v>
+        <v>18.7972831269825</v>
       </c>
       <c r="D19">
-        <v>4.45795249401061</v>
+        <v>6.979259642413088</v>
       </c>
       <c r="E19">
-        <v>10.56955487508082</v>
+        <v>12.8186321581852</v>
       </c>
       <c r="F19">
-        <v>44.73830575211202</v>
+        <v>44.66456623745184</v>
       </c>
       <c r="I19">
-        <v>22.65004185734713</v>
+        <v>27.52657255601656</v>
       </c>
       <c r="J19">
-        <v>7.168652249424435</v>
+        <v>10.27361657158674</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.8565911799316</v>
+        <v>18.31811018895236</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19576230257118</v>
+        <v>22.17453867651997</v>
       </c>
       <c r="C20">
-        <v>28.98200329244833</v>
+        <v>18.99958519880234</v>
       </c>
       <c r="D20">
-        <v>4.50674594608328</v>
+        <v>6.983273415766031</v>
       </c>
       <c r="E20">
-        <v>10.72457901669416</v>
+        <v>12.83544507004994</v>
       </c>
       <c r="F20">
-        <v>45.49569500778992</v>
+        <v>44.77581358758961</v>
       </c>
       <c r="I20">
-        <v>22.91420048357671</v>
+        <v>27.53611847040655</v>
       </c>
       <c r="J20">
-        <v>7.235853432165625</v>
+        <v>10.27381663542526</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.73020272686755</v>
+        <v>18.2896952044285</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.40578085584149</v>
+        <v>22.86332456185385</v>
       </c>
       <c r="C21">
-        <v>31.01088873929307</v>
+        <v>19.67000341083681</v>
       </c>
       <c r="D21">
-        <v>4.669276559032309</v>
+        <v>6.997539300936265</v>
       </c>
       <c r="E21">
-        <v>11.24511131127764</v>
+        <v>12.89493488074412</v>
       </c>
       <c r="F21">
-        <v>48.05781380654587</v>
+        <v>45.16429084743046</v>
       </c>
       <c r="I21">
-        <v>23.83873732054465</v>
+        <v>27.57757845263369</v>
       </c>
       <c r="J21">
-        <v>7.468237944346967</v>
+        <v>10.27678883301293</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.30430701727972</v>
+        <v>18.19651849422862</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.8124505033177</v>
+        <v>23.30714356487752</v>
       </c>
       <c r="C22">
-        <v>32.30762779339145</v>
+        <v>20.10047833547345</v>
       </c>
       <c r="D22">
-        <v>4.774419687427852</v>
+        <v>7.007436115206398</v>
       </c>
       <c r="E22">
-        <v>11.58534448873921</v>
+        <v>12.93601847040721</v>
       </c>
       <c r="F22">
-        <v>49.74788762926133</v>
+        <v>45.42886583607443</v>
       </c>
       <c r="I22">
-        <v>24.47246515371111</v>
+        <v>27.61168959050525</v>
       </c>
       <c r="J22">
-        <v>7.625381328895364</v>
+        <v>10.28044598763718</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.02435675226062</v>
+        <v>18.13732273180378</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.06495667888991</v>
+        <v>23.07089865601904</v>
       </c>
       <c r="C23">
-        <v>31.61802407667738</v>
+        <v>19.8714750108807</v>
       </c>
       <c r="D23">
-        <v>4.718402440681565</v>
+        <v>7.002102085687782</v>
       </c>
       <c r="E23">
-        <v>11.40372869701143</v>
+        <v>12.91389195877138</v>
       </c>
       <c r="F23">
-        <v>48.84423482395908</v>
+        <v>45.28669800056782</v>
       </c>
       <c r="I23">
-        <v>24.13139875196932</v>
+        <v>27.59284102768879</v>
       </c>
       <c r="J23">
-        <v>7.541003689238559</v>
+        <v>10.27833720346498</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.17396336350736</v>
+        <v>18.16876159255172</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.15896694332948</v>
+        <v>22.16318514459022</v>
       </c>
       <c r="C24">
-        <v>28.94830953329177</v>
+        <v>18.98850864824965</v>
       </c>
       <c r="D24">
-        <v>4.504071621182997</v>
+        <v>6.98305004295919</v>
       </c>
       <c r="E24">
-        <v>10.71606755096774</v>
+        <v>12.83451041610509</v>
       </c>
       <c r="F24">
-        <v>45.45404268703903</v>
+        <v>44.76964843591477</v>
       </c>
       <c r="I24">
-        <v>22.89955936319485</v>
+        <v>27.53555899571091</v>
       </c>
       <c r="J24">
-        <v>7.23213902426069</v>
+        <v>10.27379699831368</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.73714643795899</v>
+        <v>18.29124696761578</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.84678606383809</v>
+        <v>21.16218809327519</v>
       </c>
       <c r="C25">
-        <v>25.92672670851137</v>
+        <v>18.00821276725977</v>
       </c>
       <c r="D25">
-        <v>4.268519519965416</v>
+        <v>6.965012919905493</v>
       </c>
       <c r="E25">
-        <v>9.973055856846065</v>
+        <v>12.75855131019724</v>
       </c>
       <c r="F25">
-        <v>41.84949983023692</v>
+        <v>44.25951293928646</v>
       </c>
       <c r="I25">
-        <v>21.68580541775012</v>
+        <v>27.50375114788031</v>
       </c>
       <c r="J25">
-        <v>6.919509988316601</v>
+        <v>10.27625639133159</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.34196553385858</v>
+        <v>18.43072715036169</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_110/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.41270024389404</v>
+        <v>26.24047830529782</v>
       </c>
       <c r="C2">
-        <v>17.26868271090596</v>
+        <v>23.56506219115758</v>
       </c>
       <c r="D2">
-        <v>6.953944436805049</v>
+        <v>4.09188825027997</v>
       </c>
       <c r="E2">
-        <v>12.71111770342551</v>
+        <v>9.424644006935475</v>
       </c>
       <c r="F2">
-        <v>43.92638751237442</v>
+        <v>39.23215410921946</v>
       </c>
       <c r="I2">
-        <v>27.50587781547371</v>
+        <v>20.88031134552075</v>
       </c>
       <c r="J2">
-        <v>10.2843771402909</v>
+        <v>6.705212560756545</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.53984072357976</v>
+        <v>11.7892391980888</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.90059342218827</v>
+        <v>24.36364389131629</v>
       </c>
       <c r="C3">
-        <v>16.7600630216544</v>
+        <v>21.8734486191659</v>
       </c>
       <c r="D3">
-        <v>6.947847286123034</v>
+        <v>3.970634948408609</v>
       </c>
       <c r="E3">
-        <v>12.68434590529646</v>
+        <v>9.052797271983746</v>
       </c>
       <c r="F3">
-        <v>43.72777172053077</v>
+        <v>37.4814225886447</v>
       </c>
       <c r="I3">
-        <v>27.52309948137511</v>
+        <v>20.38490530517021</v>
       </c>
       <c r="J3">
-        <v>10.29380399114021</v>
+        <v>6.569250552134995</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.61783209767465</v>
+        <v>12.09543590979066</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.5854085791531</v>
+        <v>23.15512232099211</v>
       </c>
       <c r="C4">
-        <v>16.44545893365884</v>
+        <v>20.82474264519524</v>
       </c>
       <c r="D4">
-        <v>6.944803949421012</v>
+        <v>3.895613214631448</v>
       </c>
       <c r="E4">
-        <v>12.67057955769826</v>
+        <v>8.824810009234666</v>
       </c>
       <c r="F4">
-        <v>43.61938210404844</v>
+        <v>36.41899875152397</v>
       </c>
       <c r="I4">
-        <v>27.54139620639259</v>
+        <v>20.10422146113355</v>
       </c>
       <c r="J4">
-        <v>10.30152207838112</v>
+        <v>6.490170783194256</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.66772759342776</v>
+        <v>12.28550834600388</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.45698718252594</v>
+        <v>22.64832104585279</v>
       </c>
       <c r="C5">
-        <v>16.31689344150409</v>
+        <v>20.38962501065166</v>
       </c>
       <c r="D5">
-        <v>6.943741062016802</v>
+        <v>3.86493084727388</v>
       </c>
       <c r="E5">
-        <v>12.66564429437004</v>
+        <v>8.732068797145716</v>
       </c>
       <c r="F5">
-        <v>43.5786444692613</v>
+        <v>35.98948103316862</v>
       </c>
       <c r="I5">
-        <v>27.55078441393842</v>
+        <v>19.99554269890745</v>
       </c>
       <c r="J5">
-        <v>10.30515175345555</v>
+        <v>6.459029582813256</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.68856731357365</v>
+        <v>12.36355873452296</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.43567025350214</v>
+        <v>22.56329697108574</v>
       </c>
       <c r="C6">
-        <v>16.29553001385213</v>
+        <v>20.31675471574616</v>
       </c>
       <c r="D6">
-        <v>6.943575312388314</v>
+        <v>3.859830437295693</v>
       </c>
       <c r="E6">
-        <v>12.66486561524064</v>
+        <v>8.716681904226316</v>
       </c>
       <c r="F6">
-        <v>43.57208783411578</v>
+        <v>35.91837658405784</v>
       </c>
       <c r="I6">
-        <v>27.55245970965683</v>
+        <v>19.97783492086477</v>
       </c>
       <c r="J6">
-        <v>10.30578369402324</v>
+        <v>6.453923471646476</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.69205840309172</v>
+        <v>12.37655692265195</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.5836762872485</v>
+        <v>23.14834564261537</v>
       </c>
       <c r="C7">
-        <v>16.44372622136265</v>
+        <v>20.81891603087228</v>
       </c>
       <c r="D7">
-        <v>6.944788895539326</v>
+        <v>3.895199821888391</v>
       </c>
       <c r="E7">
-        <v>12.67051026412824</v>
+        <v>8.823558477937478</v>
       </c>
       <c r="F7">
-        <v>43.61881878140985</v>
+        <v>36.41319182054811</v>
       </c>
       <c r="I7">
-        <v>27.54151500977557</v>
+        <v>20.10273297014573</v>
       </c>
       <c r="J7">
-        <v>10.30156906894245</v>
+        <v>6.489746439986146</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.66800659039924</v>
+        <v>12.28655845946208</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.23640336403751</v>
+        <v>25.60486462808281</v>
       </c>
       <c r="C8">
-        <v>17.09391766427216</v>
+        <v>22.99130439962404</v>
       </c>
       <c r="D8">
-        <v>6.951697513356692</v>
+        <v>4.050217657434295</v>
       </c>
       <c r="E8">
-        <v>12.70133415287317</v>
+        <v>9.296407761285812</v>
       </c>
       <c r="F8">
-        <v>43.85510493491194</v>
+        <v>38.62604109824652</v>
       </c>
       <c r="I8">
-        <v>27.5102074714732</v>
+        <v>20.70449521452545</v>
       </c>
       <c r="J8">
-        <v>10.28722650177269</v>
+        <v>6.657405415553293</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.56631641237116</v>
+        <v>11.89443364213385</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.50176199423399</v>
+        <v>29.98763658582991</v>
       </c>
       <c r="C9">
-        <v>18.34163096372713</v>
+        <v>26.96493837078938</v>
       </c>
       <c r="D9">
-        <v>6.970748427323626</v>
+        <v>4.348409889061009</v>
       </c>
       <c r="E9">
-        <v>12.78282992754774</v>
+        <v>10.22358205110849</v>
       </c>
       <c r="F9">
-        <v>44.42484994014148</v>
+        <v>43.05773563295545</v>
       </c>
       <c r="I9">
-        <v>27.51047921114985</v>
+        <v>22.0803159137058</v>
       </c>
       <c r="J9">
-        <v>10.27444637018375</v>
+        <v>7.022251613110971</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.38275217405645</v>
+        <v>11.13819421911047</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.41155779875957</v>
+        <v>32.96090559126596</v>
       </c>
       <c r="C10">
-        <v>19.23062506491067</v>
+        <v>29.68328448132145</v>
       </c>
       <c r="D10">
-        <v>6.988025867660996</v>
+        <v>4.562605363234698</v>
       </c>
       <c r="E10">
-        <v>12.85530515753786</v>
+        <v>10.90275343182773</v>
       </c>
       <c r="F10">
-        <v>44.90632413087247</v>
+        <v>46.36942853067193</v>
       </c>
       <c r="I10">
-        <v>27.54873848264532</v>
+        <v>23.22428410224859</v>
       </c>
       <c r="J10">
-        <v>10.27444983223716</v>
+        <v>7.314254494608692</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.25742626349269</v>
+        <v>10.58471095613847</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.81904576916436</v>
+        <v>34.26482880833944</v>
       </c>
       <c r="C11">
-        <v>19.62699384937143</v>
+        <v>30.88118400862315</v>
       </c>
       <c r="D11">
-        <v>6.996581307703768</v>
+        <v>4.658807408008609</v>
       </c>
       <c r="E11">
-        <v>12.8909508854902</v>
+        <v>11.21138672290832</v>
       </c>
       <c r="F11">
-        <v>45.13848956576585</v>
+        <v>47.89094689899672</v>
       </c>
       <c r="I11">
-        <v>27.5744833857989</v>
+        <v>23.7771526673802</v>
       </c>
       <c r="J11">
-        <v>10.27649630325423</v>
+        <v>7.452880754115458</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.20245691061833</v>
+        <v>10.33198341191246</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.97227563811027</v>
+        <v>34.75207971030795</v>
       </c>
       <c r="C12">
-        <v>19.77578244515111</v>
+        <v>31.32973301028129</v>
       </c>
       <c r="D12">
-        <v>6.999919545511657</v>
+        <v>4.695051525752021</v>
       </c>
       <c r="E12">
-        <v>12.90482775805113</v>
+        <v>11.32825769590985</v>
       </c>
       <c r="F12">
-        <v>45.22824295537355</v>
+        <v>48.46972450148962</v>
       </c>
       <c r="I12">
-        <v>27.58543571784471</v>
+        <v>23.9915339435967</v>
       </c>
       <c r="J12">
-        <v>10.27756543703257</v>
+        <v>7.506271897472002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.18193310800984</v>
+        <v>10.23601762089043</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.93932514299504</v>
+        <v>34.64742293619533</v>
       </c>
       <c r="C13">
-        <v>19.74379857610452</v>
+        <v>31.23334663222162</v>
       </c>
       <c r="D13">
-        <v>6.999196242228936</v>
+        <v>4.687254009095271</v>
       </c>
       <c r="E13">
-        <v>12.90182239162294</v>
+        <v>11.30308644613181</v>
       </c>
       <c r="F13">
-        <v>45.2088321133887</v>
+        <v>48.34494888653828</v>
       </c>
       <c r="I13">
-        <v>27.58302337128492</v>
+        <v>23.94513338193367</v>
       </c>
       <c r="J13">
-        <v>10.27732209588487</v>
+        <v>7.494732108610087</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.18634032150371</v>
+        <v>10.25669944032846</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.83167453372331</v>
+        <v>34.30504283637565</v>
       </c>
       <c r="C14">
-        <v>19.63926180056928</v>
+        <v>30.9181848693571</v>
       </c>
       <c r="D14">
-        <v>6.996853982151582</v>
+        <v>4.661792971912982</v>
       </c>
       <c r="E14">
-        <v>12.89208499392509</v>
+        <v>11.22100142737878</v>
       </c>
       <c r="F14">
-        <v>45.14583712083395</v>
+        <v>47.93850763638219</v>
       </c>
       <c r="I14">
-        <v>27.57536030696749</v>
+        <v>23.79468702945206</v>
       </c>
       <c r="J14">
-        <v>10.27657836557023</v>
+        <v>7.457254889979772</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.20076256490916</v>
+        <v>10.32409429885356</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.76559066457061</v>
+        <v>34.09449191427933</v>
       </c>
       <c r="C15">
-        <v>19.57505546142167</v>
+        <v>30.72449510790548</v>
       </c>
       <c r="D15">
-        <v>6.995432057065281</v>
+        <v>4.646173076241658</v>
       </c>
       <c r="E15">
-        <v>12.88616966825974</v>
+        <v>11.17072365426144</v>
       </c>
       <c r="F15">
-        <v>45.10748853077099</v>
+        <v>47.68990756772533</v>
       </c>
       <c r="I15">
-        <v>27.57082325818254</v>
+        <v>23.70319993722519</v>
       </c>
       <c r="J15">
-        <v>10.27616112121844</v>
+        <v>7.434417902179782</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.2096345676011</v>
+        <v>10.36533731437969</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.38478517165765</v>
+        <v>32.87475164066193</v>
       </c>
       <c r="C16">
-        <v>19.20454636521849</v>
+        <v>29.60426071588301</v>
       </c>
       <c r="D16">
-        <v>6.987480617656646</v>
+        <v>4.556292645804591</v>
       </c>
       <c r="E16">
-        <v>12.85302895870346</v>
+        <v>10.88258008369847</v>
       </c>
       <c r="F16">
-        <v>44.89141162515136</v>
+        <v>46.27033009729298</v>
       </c>
       <c r="I16">
-        <v>27.54722419169415</v>
+        <v>23.1888348887981</v>
       </c>
       <c r="J16">
-        <v>10.27435725342387</v>
+        <v>7.305316574410983</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.2610595816477</v>
+        <v>10.60119764974848</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14942132504154</v>
+        <v>32.11434144514121</v>
       </c>
       <c r="C17">
-        <v>18.97507943351232</v>
+        <v>28.90744941140478</v>
       </c>
       <c r="D17">
-        <v>6.982779781204957</v>
+        <v>4.500829707511387</v>
       </c>
       <c r="E17">
-        <v>12.83337941316699</v>
+        <v>10.70575193952713</v>
       </c>
       <c r="F17">
-        <v>44.76218521014342</v>
+        <v>45.40357208671039</v>
       </c>
       <c r="I17">
-        <v>27.53488635312811</v>
+        <v>22.88183607050243</v>
       </c>
       <c r="J17">
-        <v>10.27377452511737</v>
+        <v>7.227641108563447</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.29312893217548</v>
+        <v>10.74556124564649</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.01345421336604</v>
+        <v>31.67236362941176</v>
       </c>
       <c r="C18">
-        <v>18.84234756145434</v>
+        <v>28.50298609231649</v>
       </c>
       <c r="D18">
-        <v>6.980141579060841</v>
+        <v>4.468812580600208</v>
       </c>
       <c r="E18">
-        <v>12.82232983657549</v>
+        <v>10.60400987856592</v>
       </c>
       <c r="F18">
-        <v>44.6890978333286</v>
+        <v>44.90641061610275</v>
       </c>
       <c r="I18">
-        <v>27.52857485462465</v>
+        <v>22.70829039461096</v>
       </c>
       <c r="J18">
-        <v>10.27363183290492</v>
+        <v>7.18350485781646</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.31176668390255</v>
+        <v>10.82851471888274</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.96732145644065</v>
+        <v>31.52191240848468</v>
       </c>
       <c r="C19">
-        <v>18.7972831269825</v>
+        <v>28.36539671806189</v>
       </c>
       <c r="D19">
-        <v>6.979259642413088</v>
+        <v>4.457952494010566</v>
       </c>
       <c r="E19">
-        <v>12.8186321581852</v>
+        <v>10.56955487508083</v>
       </c>
       <c r="F19">
-        <v>44.66456623745184</v>
+        <v>44.73830575211209</v>
       </c>
       <c r="I19">
-        <v>27.52657255601656</v>
+        <v>22.65004185734715</v>
       </c>
       <c r="J19">
-        <v>10.27361657158674</v>
+        <v>7.16865224942444</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.31811018895236</v>
+        <v>10.85659117993157</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17453867651997</v>
+        <v>32.195762302571</v>
       </c>
       <c r="C20">
-        <v>18.99958519880234</v>
+        <v>28.98200329244812</v>
       </c>
       <c r="D20">
-        <v>6.983273415766031</v>
+        <v>4.50674594608321</v>
       </c>
       <c r="E20">
-        <v>12.83544507004994</v>
+        <v>10.72457901669415</v>
       </c>
       <c r="F20">
-        <v>44.77581358758961</v>
+        <v>45.49569500778986</v>
       </c>
       <c r="I20">
-        <v>27.53611847040655</v>
+        <v>22.91420048357674</v>
       </c>
       <c r="J20">
-        <v>10.27381663542526</v>
+        <v>7.235853432165638</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.2896952044285</v>
+        <v>10.73020272686761</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.86332456185385</v>
+        <v>34.40578085584153</v>
       </c>
       <c r="C21">
-        <v>19.67000341083681</v>
+        <v>31.01088873929304</v>
       </c>
       <c r="D21">
-        <v>6.997539300936265</v>
+        <v>4.669276559032227</v>
       </c>
       <c r="E21">
-        <v>12.89493488074412</v>
+        <v>11.24511131127764</v>
       </c>
       <c r="F21">
-        <v>45.16429084743046</v>
+        <v>48.05781380654596</v>
       </c>
       <c r="I21">
-        <v>27.57757845263369</v>
+        <v>23.83873732054471</v>
       </c>
       <c r="J21">
-        <v>10.27678883301293</v>
+        <v>7.468237944346978</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.19651849422862</v>
+        <v>10.30430701727964</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.30714356487752</v>
+        <v>35.81245050331764</v>
       </c>
       <c r="C22">
-        <v>20.10047833547345</v>
+        <v>32.30762779339141</v>
       </c>
       <c r="D22">
-        <v>7.007436115206398</v>
+        <v>4.774419687427798</v>
       </c>
       <c r="E22">
-        <v>12.93601847040721</v>
+        <v>11.58534448873918</v>
       </c>
       <c r="F22">
-        <v>45.42886583607443</v>
+        <v>49.74788762926129</v>
       </c>
       <c r="I22">
-        <v>27.61168959050525</v>
+        <v>24.47246515371113</v>
       </c>
       <c r="J22">
-        <v>10.28044598763718</v>
+        <v>7.625381328895359</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.13732273180378</v>
+        <v>10.02435675226072</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.07089865601904</v>
+        <v>35.06495667888989</v>
       </c>
       <c r="C23">
-        <v>19.8714750108807</v>
+        <v>31.61802407667729</v>
       </c>
       <c r="D23">
-        <v>7.002102085687782</v>
+        <v>4.718402440681565</v>
       </c>
       <c r="E23">
-        <v>12.91389195877138</v>
+        <v>11.40372869701143</v>
       </c>
       <c r="F23">
-        <v>45.28669800056782</v>
+        <v>48.84423482395913</v>
       </c>
       <c r="I23">
-        <v>27.59284102768879</v>
+        <v>24.13139875196938</v>
       </c>
       <c r="J23">
-        <v>10.27833720346498</v>
+        <v>7.541003689238561</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.16876159255172</v>
+        <v>10.17396336350739</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16318514459022</v>
+        <v>32.15896694332952</v>
       </c>
       <c r="C24">
-        <v>18.98850864824965</v>
+        <v>28.94830953329187</v>
       </c>
       <c r="D24">
-        <v>6.98305004295919</v>
+        <v>4.504071621182961</v>
       </c>
       <c r="E24">
-        <v>12.83451041610509</v>
+        <v>10.71606755096771</v>
       </c>
       <c r="F24">
-        <v>44.76964843591477</v>
+        <v>45.45404268703915</v>
       </c>
       <c r="I24">
-        <v>27.53555899571091</v>
+        <v>22.89955936319493</v>
       </c>
       <c r="J24">
-        <v>10.27379699831368</v>
+        <v>7.232139024260675</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.29124696761578</v>
+        <v>10.73714643795897</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.16218809327519</v>
+        <v>28.84678606383806</v>
       </c>
       <c r="C25">
-        <v>18.00821276725977</v>
+        <v>25.92672670851136</v>
       </c>
       <c r="D25">
-        <v>6.965012919905493</v>
+        <v>4.268519519965267</v>
       </c>
       <c r="E25">
-        <v>12.75855131019724</v>
+        <v>9.973055856846043</v>
       </c>
       <c r="F25">
-        <v>44.25951293928646</v>
+        <v>41.84949983023697</v>
       </c>
       <c r="I25">
-        <v>27.50375114788031</v>
+        <v>21.68580541775024</v>
       </c>
       <c r="J25">
-        <v>10.27625639133159</v>
+        <v>6.919509988316638</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.43072715036169</v>
+        <v>11.34196553385868</v>
       </c>
       <c r="O25">
         <v>0</v>
